--- a/BackTest/2020-01-13 BackTest FX.xlsx
+++ b/BackTest/2020-01-13 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1154,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2043,6 +2093,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2082,6 +2133,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2121,6 +2173,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2160,6 +2213,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2199,6 +2253,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2238,6 +2293,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2277,6 +2333,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2316,6 +2373,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2355,6 +2413,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2394,6 +2453,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2433,6 +2493,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,6 +2533,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2511,6 +2573,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2552,6 +2615,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2593,6 +2657,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2634,6 +2699,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2673,6 +2739,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2712,6 +2779,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2751,6 +2819,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2790,6 +2859,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2829,6 +2899,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2868,6 +2939,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2907,6 +2979,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2946,6 +3019,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2985,6 +3059,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3024,6 +3099,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3063,6 +3139,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3102,6 +3179,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3141,6 +3219,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3180,6 +3259,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3219,6 +3299,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3258,6 +3339,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3297,6 +3379,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3336,6 +3419,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3375,6 +3459,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3414,6 +3499,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3453,6 +3539,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3492,6 +3579,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3531,6 +3619,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3570,6 +3659,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3609,6 +3699,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3648,6 +3739,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3687,6 +3779,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3726,6 +3819,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3765,6 +3859,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3804,6 +3899,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3843,6 +3939,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3882,6 +3979,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3921,6 +4019,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3960,6 +4059,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3999,6 +4099,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4038,6 +4139,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4077,6 +4179,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4118,6 +4221,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4157,6 +4261,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4196,6 +4301,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4235,6 +4341,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4274,6 +4381,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4313,6 +4421,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4352,6 +4461,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4391,6 +4501,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4432,6 +4543,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4471,6 +4583,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4512,6 +4625,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4551,6 +4665,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4590,6 +4705,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4629,6 +4745,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4668,6 +4785,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4707,6 +4825,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4746,6 +4865,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4785,6 +4905,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4824,6 +4945,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4863,6 +4985,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4902,6 +5025,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4941,6 +5065,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4980,6 +5105,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5019,6 +5145,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest FX.xlsx
+++ b/BackTest/2020-01-13 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-96254.19002705556</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-189269.4497270556</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-184815.3760270556</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-183755.0863270556</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-176100.0721270556</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-155884.2537971651</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-162640.6780823343</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-162632.6780823343</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-164408.7212823344</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-179004.8832823344</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-178996.8832823344</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-185028.2595823344</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-175059.6918823344</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-174902.8024823344</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-174895.0247823344</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-180727.8243823344</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-178811.4115823344</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-154665.741223775</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-160322.664023775</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-160322.664023775</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-160471.878623775</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-233638.345423775</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-233638.345423775</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-233638.345423775</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-231950.022623775</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-237438.865823775</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-235610.084123775</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-235794.084123775</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-237814.868523775</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-236632.958023775</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-236624.958023775</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-237606.830823775</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-226435.510923775</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-205400.0745467654</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-205416.0745467654</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-221128.4779467655</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-211529.8958467655</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-232795.8886467655</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-287309.6378467655</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-289288.0946467654</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-289288.0946467654</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-292503.0323467655</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-296727.1450467655</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-309732.0129467655</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,21 @@
         <v>-238535.5060467655</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>62.67</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3561,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3598,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3635,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3672,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3709,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3746,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3783,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3820,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3857,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3894,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3931,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3968,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4005,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4042,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4077,21 @@
         <v>-291067.3040467654</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>62.67</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4118,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4155,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,22 +4190,21 @@
         <v>-299911.4171467655</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
         <v>62.67</v>
       </c>
-      <c r="K113" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4492,26 +4229,21 @@
         <v>-299911.4171467655</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
         <v>62.7</v>
       </c>
-      <c r="K114" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4536,26 +4268,21 @@
         <v>-299903.4171467655</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
         <v>62.7</v>
       </c>
-      <c r="K115" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4580,18 +4307,21 @@
         <v>-299903.4171467655</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>63.48</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4616,24 +4346,21 @@
         <v>-301803.5486467655</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
         <v>63.48</v>
       </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4660,20 +4387,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4698,24 +4422,19 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4742,20 +4461,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4780,24 +4496,19 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4822,24 +4533,21 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
         <v>62.9</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4864,24 +4572,21 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
         <v>62.9</v>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4906,24 +4611,21 @@
         <v>-327751.2341467655</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
         <v>62.9</v>
       </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4948,24 +4650,21 @@
         <v>-327751.2341467655</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
         <v>62.71</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4990,24 +4689,21 @@
         <v>-327743.2341467655</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
         <v>62.71</v>
       </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5032,24 +4728,19 @@
         <v>-327993.2674467655</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5074,24 +4765,19 @@
         <v>-327985.2674467655</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5116,24 +4802,21 @@
         <v>-343282.6392467655</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
         <v>63.4</v>
       </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5158,24 +4841,21 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
         <v>62.73</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5200,22 +4880,21 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>63.4</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5242,20 +4921,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5282,20 +4958,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5322,20 +4995,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5360,24 +5030,19 @@
         <v>-353025.6153467656</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5402,24 +5067,21 @@
         <v>-353017.6153467656</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
         <v>62.91</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5444,24 +5106,21 @@
         <v>-356107.2336467655</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
         <v>63.38</v>
       </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5486,24 +5145,21 @@
         <v>-353283.2000467655</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
         <v>62.91</v>
       </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5528,24 +5184,21 @@
         <v>-350789.4212467655</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
         <v>62.93</v>
       </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5570,24 +5223,21 @@
         <v>-350789.4212467655</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
         <v>63</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5612,24 +5262,21 @@
         <v>-368246.6354467655</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
         <v>63</v>
       </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5654,24 +5301,21 @@
         <v>-377303.2930467655</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
         <v>62.92</v>
       </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5696,24 +5340,21 @@
         <v>-376973.4607467655</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
         <v>62.91</v>
       </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5738,24 +5379,21 @@
         <v>-389552.4671467655</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
         <v>63.69</v>
       </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5780,24 +5418,19 @@
         <v>-397999.1965467655</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5822,24 +5455,21 @@
         <v>-397991.1965467655</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
         <v>62.77</v>
       </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5866,20 +5496,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5906,20 +5533,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5946,20 +5570,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5986,20 +5607,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6026,20 +5644,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6066,22 +5681,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest FX.xlsx
+++ b/BackTest/2020-01-13 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-96254.19002705556</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-189269.4497270556</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-184815.3760270556</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-183755.0863270556</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-176100.0721270556</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-155884.2537971651</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-162640.6780823343</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-162632.6780823343</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-164408.7212823344</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-179004.8832823344</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-178996.8832823344</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-185028.2595823344</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-175059.6918823344</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-174902.8024823344</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-174895.0247823344</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-180727.8243823344</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-178811.4115823344</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-154665.741223775</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-160322.664023775</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-160322.664023775</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-160471.878623775</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-233638.345423775</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-233638.345423775</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-233638.345423775</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-231950.022623775</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-237438.865823775</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-235610.084123775</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-235794.084123775</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-237814.868523775</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2532,8 +2532,12 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>63</v>
+      </c>
+      <c r="J65" t="n">
+        <v>63</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2563,11 +2567,19 @@
         <v>-236624.958023775</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>63.01</v>
+      </c>
+      <c r="J66" t="n">
+        <v>63</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2608,17 @@
         <v>-236624.958023775</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>63</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,7 +2647,7 @@
         <v>-237606.830823775</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2680,7 @@
         <v>-226435.510923775</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2713,7 @@
         <v>-205400.0745467654</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2746,7 @@
         <v>-205416.0745467654</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2779,7 @@
         <v>-221128.4779467655</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2812,7 @@
         <v>-211529.8958467655</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2845,7 @@
         <v>-232795.8886467655</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2878,7 @@
         <v>-287309.6378467655</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2911,7 @@
         <v>-289288.0946467654</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2944,7 @@
         <v>-289288.0946467654</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2977,7 @@
         <v>-292503.0323467655</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3010,7 @@
         <v>-296727.1450467655</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3043,7 @@
         <v>-309732.0129467655</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,10 +3076,14 @@
         <v>-243027.2685467655</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>62.5</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3091,11 +3113,19 @@
         <v>-223382.8903467655</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="J82" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3154,19 @@
         <v>-223382.8903467655</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,10 +3195,14 @@
         <v>-225829.5396467655</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>63.2</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3190,11 +3232,19 @@
         <v>-225829.5396467655</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3273,19 @@
         <v>-225829.5396467655</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,10 +3314,14 @@
         <v>-225829.5396467655</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3289,11 +3351,19 @@
         <v>-225829.5396467655</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3392,19 @@
         <v>-239486.0067467655</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3433,19 @@
         <v>-237224.5060467655</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>62.53</v>
+      </c>
+      <c r="J90" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3474,19 @@
         <v>-237224.5060467655</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="J91" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3515,19 @@
         <v>-237224.5060467655</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="J92" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3556,19 @@
         <v>-237224.5060467655</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="J93" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3597,19 @@
         <v>-238535.5060467655</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="J94" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,15 +3638,17 @@
         <v>-238535.5060467655</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>62.67</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3559,10 +3679,14 @@
         <v>-216678.9531467654</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="J96" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3596,10 +3720,14 @@
         <v>-216670.9531467654</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="J97" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3633,10 +3761,14 @@
         <v>-217960.8039467654</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,10 +3802,14 @@
         <v>-275834.4418467655</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,7 +3846,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,7 +3885,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,7 +3924,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,7 +3963,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,7 +4002,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3892,10 +4038,14 @@
         <v>-271280.7947467655</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="J105" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,10 +4079,14 @@
         <v>-271272.7947467655</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="J106" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3969,7 +4123,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4003,10 +4159,14 @@
         <v>-274389.2577467654</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,7 +4203,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,12 +4239,14 @@
         <v>-291067.3040467654</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>62.67</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,10 +4280,14 @@
         <v>-291067.3040467654</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="J111" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,10 +4321,14 @@
         <v>-308675.9400467654</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="J112" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,12 +4362,14 @@
         <v>-299911.4171467655</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>62.67</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,12 +4403,14 @@
         <v>-299911.4171467655</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>62.7</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,12 +4444,14 @@
         <v>-299903.4171467655</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>62.7</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,12 +4485,14 @@
         <v>-299903.4171467655</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>63.48</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,12 +4526,14 @@
         <v>-301803.5486467655</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>63.48</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4385,10 +4567,14 @@
         <v>-301776.8500467655</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="J118" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4422,10 +4608,14 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="J119" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4459,10 +4649,14 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="J120" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,7 +4693,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,12 +4729,14 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>62.9</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4572,12 +4770,12 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,12 +4809,14 @@
         <v>-327751.2341467655</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>62.9</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,12 +4850,14 @@
         <v>-327751.2341467655</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>62.71</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,12 +4891,14 @@
         <v>-327743.2341467655</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>62.71</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,10 +4932,14 @@
         <v>-327993.2674467655</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="J127" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,10 +4973,14 @@
         <v>-327985.2674467655</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="J128" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,12 +5014,12 @@
         <v>-343282.6392467655</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4841,12 +5053,12 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,12 +5092,12 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,7 +5134,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4959,7 +5173,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,7 +5212,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5030,10 +5248,14 @@
         <v>-353025.6153467656</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5067,12 +5289,14 @@
         <v>-353017.6153467656</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>62.91</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5106,12 +5330,14 @@
         <v>-356107.2336467655</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>63.38</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5145,12 +5371,14 @@
         <v>-353283.2000467655</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>62.91</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,12 +5412,12 @@
         <v>-350789.4212467655</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>62.93</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,12 +5451,14 @@
         <v>-350789.4212467655</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>63</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,12 +5492,14 @@
         <v>-368246.6354467655</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>63</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5301,12 +5533,14 @@
         <v>-377303.2930467655</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>62.92</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5340,12 +5574,14 @@
         <v>-376973.4607467655</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>62.91</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5379,12 +5615,14 @@
         <v>-389552.4671467655</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>63.69</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,10 +5656,14 @@
         <v>-397999.1965467655</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="J145" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5455,12 +5697,14 @@
         <v>-397991.1965467655</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>62.77</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5497,7 +5741,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5534,7 +5780,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,7 +5819,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5608,7 +5858,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5645,7 +5897,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5682,7 +5936,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5694,6 +5950,6 @@
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest FX.xlsx
+++ b/BackTest/2020-01-13 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-96254.19002705556</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-189269.4497270556</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-184815.3760270556</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-183755.0863270556</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-176100.0721270556</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-160322.664023775</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-160471.878623775</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2530,14 +2530,10 @@
         <v>-236632.958023775</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>63</v>
-      </c>
-      <c r="J65" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2567,19 +2563,11 @@
         <v>-236624.958023775</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>63.01</v>
-      </c>
-      <c r="J66" t="n">
-        <v>63</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2611,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>63</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +3058,10 @@
         <v>-243027.2685467655</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>62.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3113,2521 +3091,2097 @@
         <v>-223382.8903467655</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>62.62</v>
-      </c>
-      <c r="J82" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>337.8746</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-223382.8903467655</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E84" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2446.6493</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-225829.5396467655</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D85" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2404.6209</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-225829.5396467655</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C86" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2261.5007</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-225829.5396467655</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2540.5558</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-225829.5396467655</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>19315.9971</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-225829.5396467655</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>62.53</v>
+      </c>
+      <c r="D89" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>62.53</v>
+      </c>
+      <c r="F89" t="n">
+        <v>13656.4671</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-239486.0067467655</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="C90" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="D90" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="E90" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2261.5007</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-237224.5060467655</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="C91" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="D91" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="E91" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1407</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-237224.5060467655</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="C92" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="D92" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="E92" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="F92" t="n">
+        <v>267</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-237224.5060467655</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="C93" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="D93" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="E93" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11954.3844</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-237224.5060467655</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="C94" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="D94" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="E94" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1311</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-238535.5060467655</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="C95" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="D95" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="E95" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="F95" t="n">
+        <v>135</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-238535.5060467655</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="D96" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="F96" t="n">
+        <v>21856.5529</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-216678.9531467654</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="C97" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D97" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-216670.9531467654</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="C98" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="D98" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="E98" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1289.8508</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-217960.8039467654</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="C99" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="D99" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="E99" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="F99" t="n">
+        <v>57873.6379</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-275834.4418467655</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="C100" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="D100" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="E100" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5804.329</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-281638.7708467655</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C101" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5477.8019</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-276160.9689467655</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C102" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D102" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>326.5272</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-276160.9689467655</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>63.41</v>
+      </c>
+      <c r="D103" t="n">
+        <v>63.41</v>
+      </c>
+      <c r="E103" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12939.3468</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-263221.6221467655</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-263213.6221467655</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>62.81</v>
+      </c>
+      <c r="C105" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="D105" t="n">
+        <v>62.81</v>
+      </c>
+      <c r="E105" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8067.1726</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-271280.7947467655</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-271272.7947467655</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>387.4631</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-271660.2578467655</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="C108" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2728.9999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-274389.2577467654</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="D109" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="F109" t="n">
+        <v>20805.7791</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-295195.0368467654</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="C110" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="D110" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="E110" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4127.7328</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-291067.3040467654</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="C111" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="D111" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="E111" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5986.3554</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-291067.3040467654</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="C112" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="D112" t="n">
+        <v>62.68</v>
+      </c>
+      <c r="E112" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="F112" t="n">
+        <v>17608.636</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-308675.9400467654</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C113" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8764.5229</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-299911.4171467655</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D114" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>22803.3926</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-299911.4171467655</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="C115" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="D115" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="E115" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-299903.4171467655</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="C116" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="D116" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="E116" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="F116" t="n">
+        <v>110.2709514807813</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-299903.4171467655</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="C117" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="E117" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1900.1315</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-301803.5486467655</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="C118" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="D118" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="E118" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26.6986</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-301776.8500467655</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1275</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-300501.8500467655</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>923</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-300501.8500467655</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9225.444600000001</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-300501.8500467655</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>145.4933</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-300501.8500467655</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="C123" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>62.6212</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-300501.8500467655</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="D124" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="F124" t="n">
+        <v>27249.3841</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-327751.2341467655</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="C125" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="D125" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="E125" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3783.5147</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-327751.2341467655</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-327743.2341467655</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="C127" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="D127" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="E127" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="F127" t="n">
+        <v>250.0333</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-327993.2674467655</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-327985.2674467655</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="D129" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15297.3718</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-343282.6392467655</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>31.2412</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-343251.3980467655</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>69.6194</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-343251.3980467655</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D132" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15212.1945</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-343251.3980467655</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>19629.374</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-343251.3980467655</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14660.9928</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-343251.3980467655</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="C135" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="D135" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="E135" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9774.2173</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-353025.6153467656</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="C136" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="D136" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="E136" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-353017.6153467656</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="C137" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="D137" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="E137" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3089.6183</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-356107.2336467655</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="C138" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="D138" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="E138" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2824.0336</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-353283.2000467655</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>63</v>
+      </c>
+      <c r="C139" t="n">
+        <v>63</v>
+      </c>
+      <c r="D139" t="n">
+        <v>63</v>
+      </c>
+      <c r="E139" t="n">
+        <v>63</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2493.7788</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-350789.4212467655</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="J139" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>63</v>
+      </c>
+      <c r="C140" t="n">
+        <v>63</v>
+      </c>
+      <c r="D140" t="n">
+        <v>63</v>
+      </c>
+      <c r="E140" t="n">
+        <v>63</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2496.6138</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-350789.4212467655</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>63</v>
+      </c>
+      <c r="J140" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="D83" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>337.8746</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-223382.8903467655</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="C141" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="D141" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="E141" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="F141" t="n">
+        <v>17457.2142</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-368246.6354467655</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>63</v>
+      </c>
+      <c r="J141" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C84" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D84" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E84" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2446.6493</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C85" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D85" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E85" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2404.6209</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="C142" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="D142" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="E142" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9056.6576</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-377303.2930467655</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="J142" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="C143" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="D143" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="E143" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="F143" t="n">
+        <v>329.8323</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-376973.4607467655</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="J143" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C86" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E86" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2261.5007</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C87" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E87" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2540.5558</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>19315.9971</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="D89" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="F89" t="n">
-        <v>13656.4671</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-239486.0067467655</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="C144" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="D144" t="n">
+        <v>62.79</v>
+      </c>
+      <c r="E144" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="F144" t="n">
+        <v>12579.0064</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-389552.4671467655</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>63.69</v>
+      </c>
+      <c r="J144" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="C90" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="D90" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="E90" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2261.5007</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-237224.5060467655</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="J90" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="C91" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="D91" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="E91" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1407</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-237224.5060467655</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="J91" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="C92" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="D92" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="E92" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="F92" t="n">
-        <v>267</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-237224.5060467655</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="J92" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="C93" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="D93" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="E93" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="F93" t="n">
-        <v>11954.3844</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-237224.5060467655</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="J93" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="C94" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="D94" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="E94" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1311</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-238535.5060467655</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="J94" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="C95" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="D95" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="E95" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="F95" t="n">
-        <v>135</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-238535.5060467655</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="J95" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="D96" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E96" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="F96" t="n">
-        <v>21856.5529</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-216678.9531467654</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="J96" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="D97" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="E97" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>8</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-216670.9531467654</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="J97" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="C98" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="D98" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="E98" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1289.8508</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-217960.8039467654</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="C99" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="D99" t="n">
-        <v>62.75</v>
-      </c>
-      <c r="E99" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="F99" t="n">
-        <v>57873.6379</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-275834.4418467655</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="J99" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="C100" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="D100" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="E100" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="F100" t="n">
-        <v>5804.329</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-281638.7708467655</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C101" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D101" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E101" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F101" t="n">
-        <v>5477.8019</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-276160.9689467655</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C102" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D102" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E102" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>326.5272</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-276160.9689467655</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>63.41</v>
-      </c>
-      <c r="D103" t="n">
-        <v>63.41</v>
-      </c>
-      <c r="E103" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>12939.3468</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-263221.6221467655</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="D104" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="E104" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="F104" t="n">
-        <v>8</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-263213.6221467655</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>62.81</v>
-      </c>
-      <c r="C105" t="n">
-        <v>62.69</v>
-      </c>
-      <c r="D105" t="n">
-        <v>62.81</v>
-      </c>
-      <c r="E105" t="n">
-        <v>62.69</v>
-      </c>
-      <c r="F105" t="n">
-        <v>8067.1726</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-271280.7947467655</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="J105" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="C106" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="D106" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="E106" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="F106" t="n">
-        <v>8</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-271272.7947467655</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>62.69</v>
-      </c>
-      <c r="J106" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="C107" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="E107" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F107" t="n">
-        <v>387.4631</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-271660.2578467655</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="C108" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D108" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E108" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2728.9999</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-274389.2577467654</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C109" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="D109" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E109" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="F109" t="n">
-        <v>20805.7791</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-295195.0368467654</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="C110" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="D110" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="E110" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="F110" t="n">
-        <v>4127.7328</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-291067.3040467654</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="J110" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="C111" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="D111" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="E111" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5986.3554</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-291067.3040467654</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="J111" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="C112" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="D112" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="E112" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="F112" t="n">
-        <v>17608.636</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-308675.9400467654</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>62.68</v>
-      </c>
-      <c r="J112" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C113" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D113" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E113" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F113" t="n">
-        <v>8764.5229</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-299911.4171467655</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>62.67</v>
-      </c>
-      <c r="J113" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="C114" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D114" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="E114" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>22803.3926</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-299911.4171467655</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J114" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="C115" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="D115" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="E115" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="F115" t="n">
-        <v>8</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-299903.4171467655</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J115" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="C116" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="D116" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="E116" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="F116" t="n">
-        <v>110.2709514807813</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-299903.4171467655</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="J116" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="C117" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="E117" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1900.1315</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-301803.5486467655</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>63.48</v>
-      </c>
-      <c r="J117" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="C118" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="D118" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="E118" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="F118" t="n">
-        <v>26.6986</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-301776.8500467655</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J118" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="D119" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E119" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1275</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="J119" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E120" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F120" t="n">
-        <v>923</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J120" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="C121" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E121" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>9225.444600000001</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="D122" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E122" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F122" t="n">
-        <v>145.4933</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="D123" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E123" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F123" t="n">
-        <v>62.6212</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="C124" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="D124" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="E124" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="F124" t="n">
-        <v>27249.3841</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-327751.2341467655</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J124" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="C125" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="D125" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="E125" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3783.5147</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-327751.2341467655</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="J125" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C126" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="D126" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="E126" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="F126" t="n">
-        <v>8</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-327743.2341467655</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="J126" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="C127" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="D127" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="E127" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="F127" t="n">
-        <v>250.0333</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-327993.2674467655</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="J127" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C128" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="E128" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="F128" t="n">
-        <v>8</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-327985.2674467655</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="J128" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="D129" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="F129" t="n">
-        <v>15297.3718</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-343282.6392467655</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C130" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="D130" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="E130" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>31.2412</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="D131" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="E131" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="F131" t="n">
-        <v>69.6194</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C132" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="D132" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="E132" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="F132" t="n">
-        <v>15212.1945</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C133" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="D133" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="E133" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="F133" t="n">
-        <v>19629.374</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="C134" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="D134" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="E134" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>14660.9928</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="C135" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="D135" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="E135" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="F135" t="n">
-        <v>9774.2173</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-353025.6153467656</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="J135" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>63.38</v>
-      </c>
-      <c r="C136" t="n">
-        <v>63.38</v>
-      </c>
-      <c r="D136" t="n">
-        <v>63.38</v>
-      </c>
-      <c r="E136" t="n">
-        <v>63.38</v>
-      </c>
-      <c r="F136" t="n">
-        <v>8</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-353017.6153467656</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="J136" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="C137" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="D137" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="E137" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3089.6183</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-356107.2336467655</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>63.38</v>
-      </c>
-      <c r="J137" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>62.93</v>
-      </c>
-      <c r="C138" t="n">
-        <v>62.93</v>
-      </c>
-      <c r="D138" t="n">
-        <v>62.93</v>
-      </c>
-      <c r="E138" t="n">
-        <v>62.93</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2824.0336</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-353283.2000467655</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="J138" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>63</v>
-      </c>
-      <c r="C139" t="n">
-        <v>63</v>
-      </c>
-      <c r="D139" t="n">
-        <v>63</v>
-      </c>
-      <c r="E139" t="n">
-        <v>63</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2493.7788</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-350789.4212467655</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>63</v>
-      </c>
-      <c r="C140" t="n">
-        <v>63</v>
-      </c>
-      <c r="D140" t="n">
-        <v>63</v>
-      </c>
-      <c r="E140" t="n">
-        <v>63</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2496.6138</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-350789.4212467655</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>63</v>
-      </c>
-      <c r="J140" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="C141" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="D141" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="E141" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="F141" t="n">
-        <v>17457.2142</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-368246.6354467655</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>63</v>
-      </c>
-      <c r="J141" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="C142" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="D142" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="E142" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="F142" t="n">
-        <v>9056.6576</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-377303.2930467655</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="J142" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="C143" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="D143" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="E143" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="F143" t="n">
-        <v>329.8323</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-376973.4607467655</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="J143" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="C144" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="D144" t="n">
-        <v>62.79</v>
-      </c>
-      <c r="E144" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="F144" t="n">
-        <v>12579.0064</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-389552.4671467655</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="J144" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5662,7 +5216,7 @@
         <v>62.78</v>
       </c>
       <c r="J145" t="n">
-        <v>62.7</v>
+        <v>62.92</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5703,7 +5257,7 @@
         <v>62.77</v>
       </c>
       <c r="J146" t="n">
-        <v>62.7</v>
+        <v>62.92</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5738,11 +5292,13 @@
         <v>-397991.1965467655</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>63.6</v>
+      </c>
       <c r="J147" t="n">
-        <v>62.7</v>
+        <v>62.92</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5781,7 +5337,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>62.7</v>
+        <v>62.92</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5820,7 +5376,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>62.7</v>
+        <v>62.92</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5859,7 +5415,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>62.7</v>
+        <v>62.92</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5898,7 +5454,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>62.7</v>
+        <v>62.92</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5937,7 +5493,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>62.7</v>
+        <v>62.92</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5950,6 +5506,6 @@
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest FX.xlsx
+++ b/BackTest/2020-01-13 BackTest FX.xlsx
@@ -451,7 +451,7 @@
         <v>-96254.19002705556</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-189269.4497270556</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-184815.3760270556</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-183755.0863270556</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-176100.0721270556</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-162640.6780823343</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-162632.6780823343</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-164408.7212823344</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-185028.2595823344</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-175059.6918823344</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-180727.8243823344</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-178811.4115823344</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-160322.664023775</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -4147,10 +4147,14 @@
         <v>-299911.4171467655</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>62.7</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4180,11 +4184,19 @@
         <v>-299903.4171467655</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="J115" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4228,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4345,10 +4363,14 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="J120" t="n">
+        <v>62.9</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
@@ -4381,8 +4403,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4439,19 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="J122" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4543,10 +4579,14 @@
         <v>-327743.2341467655</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="J126" t="n">
+        <v>62.71</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4576,11 +4616,19 @@
         <v>-327993.2674467655</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="J127" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4657,19 @@
         <v>-327985.2674467655</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="J128" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4698,19 @@
         <v>-343282.6392467655</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4739,19 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="J130" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4780,19 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4824,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4863,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4902,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +4941,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +4980,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5016,19 @@
         <v>-356107.2336467655</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="J137" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5057,19 @@
         <v>-353283.2000467655</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="J138" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4978,9 +5104,13 @@
         <v>62.93</v>
       </c>
       <c r="J139" t="n">
-        <v>62.93</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+        <v>62.71</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5015,11 +5145,11 @@
         <v>63</v>
       </c>
       <c r="J140" t="n">
-        <v>62.93</v>
+        <v>62.71</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5056,11 +5186,11 @@
         <v>63</v>
       </c>
       <c r="J141" t="n">
-        <v>62.93</v>
+        <v>62.71</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5097,9 +5227,13 @@
         <v>62.92</v>
       </c>
       <c r="J142" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+        <v>62.71</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5134,11 +5268,11 @@
         <v>62.91</v>
       </c>
       <c r="J143" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -5175,11 +5309,11 @@
         <v>63.69</v>
       </c>
       <c r="J144" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -5216,7 +5350,7 @@
         <v>62.78</v>
       </c>
       <c r="J145" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5257,7 +5391,7 @@
         <v>62.77</v>
       </c>
       <c r="J146" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5298,7 +5432,7 @@
         <v>63.6</v>
       </c>
       <c r="J147" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5333,11 +5467,13 @@
         <v>-368977.0759467655</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>63.6</v>
+      </c>
       <c r="J148" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5376,7 +5512,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5415,7 +5551,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5454,7 +5590,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5493,7 +5629,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>62.92</v>
+        <v>62.71</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>

--- a/BackTest/2020-01-13 BackTest FX.xlsx
+++ b/BackTest/2020-01-13 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3528.4853</v>
       </c>
       <c r="G2" t="n">
-        <v>-96254.19002705556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>93015.2597</v>
       </c>
       <c r="G3" t="n">
-        <v>-189269.4497270556</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>4454.0737</v>
       </c>
       <c r="G4" t="n">
-        <v>-184815.3760270556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1060.2897</v>
       </c>
       <c r="G5" t="n">
-        <v>-183755.0863270556</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>7655.0142</v>
       </c>
       <c r="G6" t="n">
-        <v>-176100.0721270556</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2391.638068448195</v>
       </c>
       <c r="G7" t="n">
-        <v>-173708.4340586074</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>17.99687010954617</v>
       </c>
       <c r="G8" t="n">
-        <v>-173726.4309287169</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10.79503155180497</v>
       </c>
       <c r="G9" t="n">
-        <v>-173715.6358971651</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1918.1194</v>
       </c>
       <c r="G10" t="n">
-        <v>-171797.5164971651</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3717.4817</v>
       </c>
       <c r="G11" t="n">
-        <v>-168080.0347971651</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>12195.781</v>
       </c>
       <c r="G12" t="n">
-        <v>-155884.2537971651</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1164.995214830769</v>
       </c>
       <c r="G13" t="n">
-        <v>-154719.2585823344</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>545.8641</v>
       </c>
       <c r="G14" t="n">
-        <v>-154719.2585823344</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2806.882085169231</v>
       </c>
       <c r="G15" t="n">
-        <v>-154719.2585823344</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>7921.4195</v>
       </c>
       <c r="G16" t="n">
-        <v>-162640.6780823343</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>-162632.6780823343</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1784.0432</v>
       </c>
       <c r="G18" t="n">
-        <v>-164416.7212823344</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>15.63</v>
       </c>
       <c r="G19" t="n">
-        <v>-164416.7212823344</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>444.8756</v>
       </c>
       <c r="G20" t="n">
-        <v>-164416.7212823344</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>-164408.7212823344</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>14596.162</v>
       </c>
       <c r="G22" t="n">
-        <v>-179004.8832823344</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>-178996.8832823344</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>6031.3763</v>
       </c>
       <c r="G24" t="n">
-        <v>-185028.2595823344</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>9968.5677</v>
       </c>
       <c r="G25" t="n">
-        <v>-175059.6918823344</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>156.8894</v>
       </c>
       <c r="G26" t="n">
-        <v>-174902.8024823344</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>7.7777</v>
       </c>
       <c r="G27" t="n">
-        <v>-174895.0247823344</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>5832.7996</v>
       </c>
       <c r="G28" t="n">
-        <v>-180727.8243823344</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1916.4128</v>
       </c>
       <c r="G29" t="n">
-        <v>-178811.4115823344</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1159.8861</v>
       </c>
       <c r="G30" t="n">
-        <v>-177651.5254823344</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>4835.2211</v>
       </c>
       <c r="G31" t="n">
-        <v>-182486.7465823344</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3079.6309</v>
       </c>
       <c r="G32" t="n">
-        <v>-182486.7465823344</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>115.7411</v>
       </c>
       <c r="G33" t="n">
-        <v>-182602.4876823344</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>12196.952</v>
       </c>
       <c r="G34" t="n">
-        <v>-194799.4396823344</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>12242.5271</v>
       </c>
       <c r="G35" t="n">
-        <v>-207041.9667823344</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>24023.7811684482</v>
       </c>
       <c r="G36" t="n">
-        <v>-231065.7479507826</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3451.7008</v>
       </c>
       <c r="G37" t="n">
-        <v>-234517.4487507826</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>4352.4764</v>
       </c>
       <c r="G38" t="n">
-        <v>-234517.4487507826</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>9289.210800000001</v>
       </c>
       <c r="G39" t="n">
-        <v>-234517.4487507826</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2465.5737</v>
       </c>
       <c r="G40" t="n">
-        <v>-234517.4487507826</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>8</v>
       </c>
       <c r="G41" t="n">
-        <v>-234509.4487507826</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1181.9105</v>
       </c>
       <c r="G42" t="n">
-        <v>-234509.4487507826</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>14789.0023</v>
       </c>
       <c r="G43" t="n">
-        <v>-234509.4487507826</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>12183.6586</v>
       </c>
       <c r="G44" t="n">
-        <v>-222325.7901507826</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>59674.2844</v>
       </c>
       <c r="G45" t="n">
-        <v>-162651.5057507826</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>4837.3312</v>
       </c>
       <c r="G46" t="n">
-        <v>-157814.1745507826</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>3148.433327007627</v>
       </c>
       <c r="G47" t="n">
-        <v>-154665.741223775</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>5656.9228</v>
       </c>
       <c r="G48" t="n">
-        <v>-160322.664023775</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>15368.813</v>
       </c>
       <c r="G49" t="n">
-        <v>-160322.664023775</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>149.2146</v>
       </c>
       <c r="G50" t="n">
-        <v>-160471.878623775</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>989</v>
       </c>
       <c r="G51" t="n">
-        <v>-161460.878623775</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>289</v>
       </c>
       <c r="G52" t="n">
-        <v>-161460.878623775</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>334</v>
       </c>
       <c r="G53" t="n">
-        <v>-161460.878623775</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>32001.168</v>
       </c>
       <c r="G54" t="n">
-        <v>-193462.046623775</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>156.2988</v>
       </c>
       <c r="G55" t="n">
-        <v>-193618.345423775</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>40020</v>
       </c>
       <c r="G56" t="n">
-        <v>-233638.345423775</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>31561.9762</v>
       </c>
       <c r="G57" t="n">
-        <v>-233638.345423775</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>589</v>
       </c>
       <c r="G58" t="n">
-        <v>-233638.345423775</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1688.3228</v>
       </c>
       <c r="G59" t="n">
-        <v>-231950.022623775</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>5488.8432</v>
       </c>
       <c r="G60" t="n">
-        <v>-237438.865823775</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1828.7817</v>
       </c>
       <c r="G61" t="n">
-        <v>-235610.084123775</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>184</v>
       </c>
       <c r="G62" t="n">
-        <v>-235794.084123775</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1127.6489</v>
       </c>
       <c r="G63" t="n">
-        <v>-235794.084123775</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>2020.7844</v>
       </c>
       <c r="G64" t="n">
-        <v>-237814.868523775</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1181.9105</v>
       </c>
       <c r="G65" t="n">
-        <v>-236632.958023775</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>8</v>
       </c>
       <c r="G66" t="n">
-        <v>-236624.958023775</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1900.1315</v>
       </c>
       <c r="G67" t="n">
-        <v>-236624.958023775</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>981.8728</v>
       </c>
       <c r="G68" t="n">
-        <v>-237606.830823775</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>11171.3199</v>
       </c>
       <c r="G69" t="n">
-        <v>-226435.510923775</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>21035.43637700955</v>
       </c>
       <c r="G70" t="n">
-        <v>-205400.0745467654</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>16</v>
       </c>
       <c r="G71" t="n">
-        <v>-205416.0745467654</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>15712.4034</v>
       </c>
       <c r="G72" t="n">
-        <v>-221128.4779467655</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>9598.5821</v>
       </c>
       <c r="G73" t="n">
-        <v>-211529.8958467655</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>21265.9928</v>
       </c>
       <c r="G74" t="n">
-        <v>-232795.8886467655</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>54513.7492</v>
       </c>
       <c r="G75" t="n">
-        <v>-287309.6378467655</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1978.4568</v>
       </c>
       <c r="G76" t="n">
-        <v>-289288.0946467654</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>122.0571</v>
       </c>
       <c r="G77" t="n">
-        <v>-289288.0946467654</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>3214.9377</v>
       </c>
       <c r="G78" t="n">
-        <v>-292503.0323467655</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>4224.1127</v>
       </c>
       <c r="G79" t="n">
-        <v>-296727.1450467655</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>13004.8679</v>
       </c>
       <c r="G80" t="n">
-        <v>-309732.0129467655</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>66704.7444</v>
       </c>
       <c r="G81" t="n">
-        <v>-243027.2685467655</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>19644.3782</v>
       </c>
       <c r="G82" t="n">
-        <v>-223382.8903467655</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>337.8746</v>
       </c>
       <c r="G83" t="n">
-        <v>-223382.8903467655</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2446.6493</v>
       </c>
       <c r="G84" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2404.6209</v>
       </c>
       <c r="G85" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2261.5007</v>
       </c>
       <c r="G86" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>2540.5558</v>
       </c>
       <c r="G87" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>19315.9971</v>
       </c>
       <c r="G88" t="n">
-        <v>-225829.5396467655</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,21 @@
         <v>13656.4671</v>
       </c>
       <c r="G89" t="n">
-        <v>-239486.0067467655</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>62.7</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3089,21 @@
         <v>2261.5007</v>
       </c>
       <c r="G90" t="n">
-        <v>-237224.5060467655</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>62.53</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3125,19 @@
         <v>1407</v>
       </c>
       <c r="G91" t="n">
-        <v>-237224.5060467655</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,21 @@
         <v>267</v>
       </c>
       <c r="G92" t="n">
-        <v>-237224.5060467655</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>62.78</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3195,19 @@
         <v>11954.3844</v>
       </c>
       <c r="G93" t="n">
-        <v>-237224.5060467655</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3229,21 @@
         <v>1311</v>
       </c>
       <c r="G94" t="n">
-        <v>-238535.5060467655</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>62.78</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3265,21 @@
         <v>135</v>
       </c>
       <c r="G95" t="n">
-        <v>-238535.5060467655</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>62.67</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3301,21 @@
         <v>21856.5529</v>
       </c>
       <c r="G96" t="n">
-        <v>-216678.9531467654</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>62.67</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3337,21 @@
         <v>8</v>
       </c>
       <c r="G97" t="n">
-        <v>-216670.9531467654</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>62.68</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3373,19 @@
         <v>1289.8508</v>
       </c>
       <c r="G98" t="n">
-        <v>-217960.8039467654</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3407,19 @@
         <v>57873.6379</v>
       </c>
       <c r="G99" t="n">
-        <v>-275834.4418467655</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3441,19 @@
         <v>5804.329</v>
       </c>
       <c r="G100" t="n">
-        <v>-281638.7708467655</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3475,19 @@
         <v>5477.8019</v>
       </c>
       <c r="G101" t="n">
-        <v>-276160.9689467655</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3509,21 @@
         <v>326.5272</v>
       </c>
       <c r="G102" t="n">
-        <v>-276160.9689467655</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>62.7</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3545,21 @@
         <v>12939.3468</v>
       </c>
       <c r="G103" t="n">
-        <v>-263221.6221467655</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>62.7</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3581,21 @@
         <v>8</v>
       </c>
       <c r="G104" t="n">
-        <v>-263213.6221467655</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>63.41</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3617,19 @@
         <v>8067.1726</v>
       </c>
       <c r="G105" t="n">
-        <v>-271280.7947467655</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3651,19 @@
         <v>8</v>
       </c>
       <c r="G106" t="n">
-        <v>-271272.7947467655</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3685,19 @@
         <v>387.4631</v>
       </c>
       <c r="G107" t="n">
-        <v>-271660.2578467655</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3719,19 @@
         <v>2728.9999</v>
       </c>
       <c r="G108" t="n">
-        <v>-274389.2577467654</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3753,19 @@
         <v>20805.7791</v>
       </c>
       <c r="G109" t="n">
-        <v>-295195.0368467654</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3787,19 @@
         <v>4127.7328</v>
       </c>
       <c r="G110" t="n">
-        <v>-291067.3040467654</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3821,19 @@
         <v>5986.3554</v>
       </c>
       <c r="G111" t="n">
-        <v>-291067.3040467654</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3855,19 @@
         <v>17608.636</v>
       </c>
       <c r="G112" t="n">
-        <v>-308675.9400467654</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3889,19 @@
         <v>8764.5229</v>
       </c>
       <c r="G113" t="n">
-        <v>-299911.4171467655</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,22 +3923,19 @@
         <v>22803.3926</v>
       </c>
       <c r="G114" t="n">
-        <v>-299911.4171467655</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J114" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4181,26 +3957,19 @@
         <v>8</v>
       </c>
       <c r="G115" t="n">
-        <v>-299903.4171467655</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J115" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4222,24 +3991,19 @@
         <v>110.2709514807813</v>
       </c>
       <c r="G116" t="n">
-        <v>-299903.4171467655</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4261,18 +4025,19 @@
         <v>1900.1315</v>
       </c>
       <c r="G117" t="n">
-        <v>-301803.5486467655</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4294,18 +4059,19 @@
         <v>26.6986</v>
       </c>
       <c r="G118" t="n">
-        <v>-301776.8500467655</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4327,18 +4093,19 @@
         <v>1275</v>
       </c>
       <c r="G119" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4360,22 +4127,19 @@
         <v>923</v>
       </c>
       <c r="G120" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J120" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4397,24 +4161,19 @@
         <v>9225.444600000001</v>
       </c>
       <c r="G121" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4436,26 +4195,19 @@
         <v>145.4933</v>
       </c>
       <c r="G122" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4477,18 +4229,19 @@
         <v>62.6212</v>
       </c>
       <c r="G123" t="n">
-        <v>-300501.8500467655</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4510,18 +4263,19 @@
         <v>27249.3841</v>
       </c>
       <c r="G124" t="n">
-        <v>-327751.2341467655</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4543,18 +4297,19 @@
         <v>3783.5147</v>
       </c>
       <c r="G125" t="n">
-        <v>-327751.2341467655</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4576,22 +4331,19 @@
         <v>8</v>
       </c>
       <c r="G126" t="n">
-        <v>-327743.2341467655</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="J126" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4613,26 +4365,19 @@
         <v>250.0333</v>
       </c>
       <c r="G127" t="n">
-        <v>-327993.2674467655</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="J127" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4654,26 +4399,19 @@
         <v>8</v>
       </c>
       <c r="G128" t="n">
-        <v>-327985.2674467655</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="J128" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4695,26 +4433,19 @@
         <v>15297.3718</v>
       </c>
       <c r="G129" t="n">
-        <v>-343282.6392467655</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4736,26 +4467,19 @@
         <v>31.2412</v>
       </c>
       <c r="G130" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>62.73</v>
-      </c>
-      <c r="J130" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4777,26 +4501,19 @@
         <v>69.6194</v>
       </c>
       <c r="G131" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="J131" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4818,24 +4535,19 @@
         <v>15212.1945</v>
       </c>
       <c r="G132" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4857,24 +4569,19 @@
         <v>19629.374</v>
       </c>
       <c r="G133" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4896,24 +4603,19 @@
         <v>14660.9928</v>
       </c>
       <c r="G134" t="n">
-        <v>-343251.3980467655</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4935,24 +4637,19 @@
         <v>9774.2173</v>
       </c>
       <c r="G135" t="n">
-        <v>-353025.6153467656</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4974,24 +4671,19 @@
         <v>8</v>
       </c>
       <c r="G136" t="n">
-        <v>-353017.6153467656</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5013,26 +4705,19 @@
         <v>3089.6183</v>
       </c>
       <c r="G137" t="n">
-        <v>-356107.2336467655</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>63.38</v>
-      </c>
-      <c r="J137" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5054,26 +4739,19 @@
         <v>2824.0336</v>
       </c>
       <c r="G138" t="n">
-        <v>-353283.2000467655</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="J138" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5095,26 +4773,19 @@
         <v>2493.7788</v>
       </c>
       <c r="G139" t="n">
-        <v>-350789.4212467655</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>62.93</v>
-      </c>
-      <c r="J139" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5136,26 +4807,19 @@
         <v>2496.6138</v>
       </c>
       <c r="G140" t="n">
-        <v>-350789.4212467655</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>63</v>
-      </c>
-      <c r="J140" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5177,26 +4841,19 @@
         <v>17457.2142</v>
       </c>
       <c r="G141" t="n">
-        <v>-368246.6354467655</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>63</v>
-      </c>
-      <c r="J141" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5218,26 +4875,19 @@
         <v>9056.6576</v>
       </c>
       <c r="G142" t="n">
-        <v>-377303.2930467655</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>62.92</v>
-      </c>
-      <c r="J142" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5259,26 +4909,19 @@
         <v>329.8323</v>
       </c>
       <c r="G143" t="n">
-        <v>-376973.4607467655</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>62.91</v>
-      </c>
-      <c r="J143" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5300,26 +4943,19 @@
         <v>12579.0064</v>
       </c>
       <c r="G144" t="n">
-        <v>-389552.4671467655</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="J144" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5341,26 +4977,19 @@
         <v>8446.7294</v>
       </c>
       <c r="G145" t="n">
-        <v>-397999.1965467655</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>62.78</v>
-      </c>
-      <c r="J145" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5382,26 +5011,19 @@
         <v>8</v>
       </c>
       <c r="G146" t="n">
-        <v>-397991.1965467655</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="J146" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5423,26 +5045,19 @@
         <v>4982.3926</v>
       </c>
       <c r="G147" t="n">
-        <v>-397991.1965467655</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="J147" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5464,26 +5079,19 @@
         <v>29014.1206</v>
       </c>
       <c r="G148" t="n">
-        <v>-368977.0759467655</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="J148" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5505,24 +5113,19 @@
         <v>4775.4832</v>
       </c>
       <c r="G149" t="n">
-        <v>-364201.5927467655</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5544,24 +5147,19 @@
         <v>119.7621</v>
       </c>
       <c r="G150" t="n">
-        <v>-364081.8306467655</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5583,24 +5181,19 @@
         <v>1110.1272</v>
       </c>
       <c r="G151" t="n">
-        <v>-362971.7034467655</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5622,24 +5215,19 @@
         <v>182.2661</v>
       </c>
       <c r="G152" t="n">
-        <v>-362789.4373467655</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>62.71</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
